--- a/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="41">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,15 +58,15 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -76,45 +76,45 @@
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>positive</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
+    <t>relief</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -134,6 +134,9 @@
   </si>
   <si>
     <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -502,7 +505,7 @@
         <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -560,13 +563,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7397260273972602</v>
+        <v>0.75</v>
       </c>
       <c r="C3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -578,19 +581,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K3">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M3">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -602,7 +605,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -610,13 +613,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.417989417989418</v>
+        <v>0.4126984126984127</v>
       </c>
       <c r="C4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D4">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -628,19 +631,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4">
-        <v>0.9166666666666666</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -652,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -660,13 +663,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3624031007751938</v>
+        <v>0.3352713178294573</v>
       </c>
       <c r="C5">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D5">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,19 +681,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -702,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -760,13 +763,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.09722222222222222</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="C7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D7">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -778,19 +781,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K7">
-        <v>0.839622641509434</v>
+        <v>0.8207547169811321</v>
       </c>
       <c r="L7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M7">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -802,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -810,13 +813,13 @@
         <v>19</v>
       </c>
       <c r="K8">
-        <v>0.8381201044386423</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L8">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="M8">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -828,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>62</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -836,13 +839,13 @@
         <v>20</v>
       </c>
       <c r="K9">
-        <v>0.8170731707317073</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>67</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -854,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>15</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -862,13 +865,13 @@
         <v>21</v>
       </c>
       <c r="K10">
-        <v>0.8103448275862069</v>
+        <v>0.7804878048780488</v>
       </c>
       <c r="L10">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="M10">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -880,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -888,13 +891,13 @@
         <v>22</v>
       </c>
       <c r="K11">
-        <v>0.78125</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L11">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="M11">
-        <v>125</v>
+        <v>28</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -906,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -940,13 +943,13 @@
         <v>24</v>
       </c>
       <c r="K13">
-        <v>0.7692307692307693</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -958,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -966,13 +969,13 @@
         <v>25</v>
       </c>
       <c r="K14">
-        <v>0.7578125</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L14">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="M14">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -984,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -992,13 +995,13 @@
         <v>26</v>
       </c>
       <c r="K15">
-        <v>0.7535211267605634</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="L15">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="M15">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1010,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1018,13 +1021,13 @@
         <v>27</v>
       </c>
       <c r="K16">
-        <v>0.7446808510638298</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="M16">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1036,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>12</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1044,13 +1047,13 @@
         <v>28</v>
       </c>
       <c r="K17">
-        <v>0.7291666666666666</v>
+        <v>0.723404255319149</v>
       </c>
       <c r="L17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1070,13 +1073,13 @@
         <v>29</v>
       </c>
       <c r="K18">
-        <v>0.7222222222222222</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L18">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="M18">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1088,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1096,13 +1099,13 @@
         <v>30</v>
       </c>
       <c r="K19">
-        <v>0.6825396825396826</v>
+        <v>0.7083333333333334</v>
       </c>
       <c r="L19">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M19">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1114,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1122,13 +1125,13 @@
         <v>31</v>
       </c>
       <c r="K20">
-        <v>0.6744186046511628</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1140,7 +1143,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1148,13 +1151,13 @@
         <v>32</v>
       </c>
       <c r="K21">
-        <v>0.66</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1166,7 +1169,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1200,13 +1203,13 @@
         <v>34</v>
       </c>
       <c r="K23">
-        <v>0.5899581589958159</v>
+        <v>0.5941422594142259</v>
       </c>
       <c r="L23">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1218,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1252,13 +1255,13 @@
         <v>36</v>
       </c>
       <c r="K25">
-        <v>0.5389830508474577</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L25">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="M25">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1270,7 +1273,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1304,13 +1307,13 @@
         <v>38</v>
       </c>
       <c r="K27">
-        <v>0.5285714285714286</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="L27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M27">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1322,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1330,13 +1333,13 @@
         <v>39</v>
       </c>
       <c r="K28">
-        <v>0.4157303370786517</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M28">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1348,7 +1351,33 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>52</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K29">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L29">
+        <v>27</v>
+      </c>
+      <c r="M29">
+        <v>27</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
